--- a/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
+++ b/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T18:08:48+00:00</t>
+    <t>2023-08-22T19:47:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -152,6 +152,10 @@
 </t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>Extension.id</t>
   </si>
   <si>
@@ -205,10 +209,6 @@
   </si>
   <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Extension.extension:code</t>
@@ -772,7 +772,7 @@
         <v>43</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="AK1" t="s" s="2">
         <v>39</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -794,7 +794,7 @@
         <v>40</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>39</v>
@@ -806,13 +806,13 @@
         <v>39</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -863,13 +863,13 @@
         <v>39</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>39</v>
@@ -878,19 +878,19 @@
         <v>39</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
@@ -909,16 +909,16 @@
         <v>39</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -956,19 +956,19 @@
         <v>39</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD3" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>40</v>
@@ -980,10 +980,10 @@
         <v>39</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" hidden="true">
@@ -991,7 +991,7 @@
         <v>62</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>63</v>
@@ -1004,7 +1004,7 @@
         <v>40</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>64</v>
@@ -1016,7 +1016,7 @@
         <v>39</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>30</v>
@@ -1073,7 +1073,7 @@
         <v>39</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>40</v>
@@ -1085,7 +1085,7 @@
         <v>39</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>39</v>
@@ -1107,7 +1107,7 @@
         <v>40</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>39</v>
@@ -1119,13 +1119,13 @@
         <v>39</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1176,13 +1176,13 @@
         <v>39</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>39</v>
@@ -1191,7 +1191,7 @@
         <v>39</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" hidden="true">
@@ -1222,7 +1222,7 @@
         <v>39</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L6" t="s" s="2">
         <v>30</v>
@@ -1267,19 +1267,19 @@
         <v>39</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>40</v>
@@ -1291,7 +1291,7 @@
         <v>39</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>39</v>
@@ -1310,10 +1310,10 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>39</v>
@@ -1387,10 +1387,10 @@
         <v>76</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>39</v>
@@ -1418,7 +1418,7 @@
         <v>40</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>64</v>
@@ -1493,7 +1493,7 @@
         <v>40</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>39</v>
@@ -1510,7 +1510,7 @@
         <v>85</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>86</v>
@@ -1523,7 +1523,7 @@
         <v>40</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>64</v>
@@ -1535,7 +1535,7 @@
         <v>39</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>30</v>
@@ -1592,7 +1592,7 @@
         <v>39</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>40</v>
@@ -1604,7 +1604,7 @@
         <v>39</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>39</v>
@@ -1626,7 +1626,7 @@
         <v>40</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>39</v>
@@ -1638,13 +1638,13 @@
         <v>39</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1695,13 +1695,13 @@
         <v>39</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>39</v>
@@ -1710,7 +1710,7 @@
         <v>39</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" hidden="true">
@@ -1741,7 +1741,7 @@
         <v>39</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L11" t="s" s="2">
         <v>30</v>
@@ -1786,19 +1786,19 @@
         <v>39</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD11" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>40</v>
@@ -1810,7 +1810,7 @@
         <v>39</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>39</v>
@@ -1829,10 +1829,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>39</v>
@@ -1906,10 +1906,10 @@
         <v>76</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>39</v>
@@ -1937,7 +1937,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>64</v>
@@ -1949,7 +1949,7 @@
         <v>39</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L13" t="s" s="2">
         <v>81</v>
@@ -2012,7 +2012,7 @@
         <v>40</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>39</v>
@@ -2037,10 +2037,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>39</v>
@@ -2114,10 +2114,10 @@
         <v>76</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>39</v>
@@ -2220,7 +2220,7 @@
         <v>40</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>39</v>

--- a/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
+++ b/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T19:47:16+00:00</t>
+    <t>2023-08-22T20:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
+++ b/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T20:07:10+00:00</t>
+    <t>2023-08-22T20:25:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
+++ b/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T20:25:35+00:00</t>
+    <t>2023-08-22T22:16:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
+++ b/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T22:16:03+00:00</t>
+    <t>2023-08-25T21:39:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
+++ b/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T21:39:06+00:00</t>
+    <t>2023-08-25T21:46:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
+++ b/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T21:46:31+00:00</t>
+    <t>2023-09-06T17:45:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
+++ b/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="91">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-06T17:45:01+00:00</t>
+    <t>2023-09-06T23:35:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -266,8 +266,8 @@
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier
-</t>
+    <t>base64Binary
+booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
   </si>
   <si>
     <t>Value of extension</t>
@@ -299,10 +299,6 @@
   </si>
   <si>
     <t>Extension.extension:name.value[x]</t>
-  </si>
-  <si>
-    <t>base64Binary
-booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
   </si>
 </sst>
 </file>
@@ -1203,14 +1199,14 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>39</v>
@@ -1225,12 +1221,14 @@
         <v>54</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="N6" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="N6" t="s" s="2">
+        <v>57</v>
+      </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
         <v>39</v>
@@ -1294,7 +1292,7 @@
         <v>44</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" hidden="true">
@@ -1421,7 +1419,7 @@
         <v>46</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>39</v>
@@ -2157,7 +2155,7 @@
         <v>39</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>81</v>

--- a/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
+++ b/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-06T23:35:56+00:00</t>
+    <t>2023-09-07T20:12:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
+++ b/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-07T20:12:30+00:00</t>
+    <t>2023-09-07T21:19:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
+++ b/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-07T21:19:16+00:00</t>
+    <t>2023-09-08T21:32:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
+++ b/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-29T19:19:38+00:00</t>
+    <t>2023-10-03T05:01:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
+++ b/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-03T05:01:09+00:00</t>
+    <t>2023-10-03T20:58:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
+++ b/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-03T20:58:36+00:00</t>
+    <t>2023-10-16T19:05:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
+++ b/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-16T19:05:06+00:00</t>
+    <t>2023-10-18T17:43:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
+++ b/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T17:43:06+00:00</t>
+    <t>2023-10-19T20:14:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
+++ b/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-19T20:14:51+00:00</t>
+    <t>2023-10-23T19:17:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
+++ b/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-23T19:17:15+00:00</t>
+    <t>2023-10-26T20:17:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
+++ b/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-26T20:17:55+00:00</t>
+    <t>2023-10-30T17:17:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
+++ b/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-30T17:17:37+00:00</t>
+    <t>2023-11-02T16:59:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
+++ b/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$6</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="107">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T16:59:26+00:00</t>
+    <t>2023-11-07T20:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -133,6 +133,117 @@
   </si>
   <si>
     <t>element:Element</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t/>
@@ -561,7 +672,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK5"/>
+  <dimension ref="A1:AK6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -572,559 +683,674 @@
   <cols>
     <col min="1" max="1" width="19.59765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="19.59765625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="10.04296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="19.625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
-    <col min="17" max="17" width="20.703125" customWidth="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="4.2890625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="L1" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="AK1" t="s" s="2">
-        <v>39</v>
+      <c r="G1" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="I1" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="J1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="K1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>75</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>51</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>39</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>63</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="N5" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="N5" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>64</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" hidden="true">
+      <c r="A6" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK5">
+  <autoFilter ref="A1:AK6">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -1134,7 +1360,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI4">
+  <conditionalFormatting sqref="A2:AI5">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
+++ b/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-07T20:41:49+00:00</t>
+    <t>2023-11-09T22:35:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
+++ b/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-09T22:35:19+00:00</t>
+    <t>2024-01-31T21:18:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
+++ b/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T21:18:40+00:00</t>
+    <t>2024-01-31T22:27:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
+++ b/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T22:27:42+00:00</t>
+    <t>2024-02-13T00:30:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
+++ b/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-13T00:30:38+00:00</t>
+    <t>2024-02-15T18:07:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
+++ b/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T18:07:20+00:00</t>
+    <t>2024-02-22T00:24:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
+++ b/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-22T00:24:28+00:00</t>
+    <t>2024-04-16T19:17:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>BC Ministry of Health (https://www2.gov.bc.ca/gov/content/governments/organizational-structure/ministries-organizations/ministries/health)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -132,7 +132,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:Extension</t>
   </si>
   <si>
     <t>ID</t>

--- a/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
+++ b/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T19:17:03+00:00</t>
+    <t>2024-04-16T21:05:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
+++ b/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T21:05:39+00:00</t>
+    <t>2024-04-28T01:45:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
+++ b/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-28T01:45:29+00:00</t>
+    <t>2024-05-14T23:21:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
+++ b/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-14T23:21:03+00:00</t>
+    <t>2024-05-15T07:20:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
+++ b/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-15T07:20:40+00:00</t>
+    <t>2024-05-15T07:42:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
+++ b/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-15T07:42:26+00:00</t>
+    <t>2024-05-31T17:22:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A code that represents the Health Service Delivery Area (HSDA)that the location is a part of.</t>
+    <t>A code that represents the Health Service Delivery Area (HSDA) that the location is a part of.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
+++ b/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T17:22:32+00:00</t>
+    <t>2024-05-31T18:09:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
+++ b/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T18:09:22+00:00</t>
+    <t>2024-05-31T19:19:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
+++ b/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T19:19:35+00:00</t>
+    <t>2024-05-31T19:26:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
+++ b/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T19:26:05+00:00</t>
+    <t>2024-05-31T22:41:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
+++ b/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T22:41:33+00:00</t>
+    <t>2024-05-31T22:41:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
+++ b/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T22:41:54+00:00</t>
+    <t>2024-06-10T23:17:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
+++ b/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T23:17:00+00:00</t>
+    <t>2024-06-11T17:15:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
+++ b/StructureDefinition-bc-facility-health-service-delivery-area-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T17:15:14+00:00</t>
+    <t>2024-06-11T17:18:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
